--- a/demo/导表/机型比选--郁南.xlsx
+++ b/demo/导表/机型比选--郁南.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\demo\导表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF50FB-F50F-4BB6-8715-52947065FDE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613057D-5BFE-4DEA-B1B9-6A199E040140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19185" yWindow="3090" windowWidth="28800" windowHeight="13830" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机型比选" sheetId="8" r:id="rId1"/>
@@ -1191,6 +1191,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1210,7 +1278,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1463,8 +1531,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="19">
-        <v>209163.87346879992</v>
+        <v>209163.87346880001</v>
       </c>
       <c r="C9" s="19">
         <v>210572.97919999997</v>
@@ -1768,8 +1836,8 @@
         <v>26</v>
       </c>
       <c r="B12" s="9">
-        <f>(224.393*4+224.393*30)/34</f>
-        <v>224.393</v>
+        <f>(252.125*4+252.125*30)/34</f>
+        <v>252.125</v>
       </c>
       <c r="C12" s="9">
         <f>(206.16*4+206.16*30)/34</f>
@@ -1803,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="27">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="C13" s="27">
         <v>3400</v>
@@ -1834,7 +1902,7 @@
       </c>
       <c r="B14" s="5">
         <f>B12*B4*1.05</f>
-        <v>9424.5059999999994</v>
+        <v>10589.25</v>
       </c>
       <c r="C14" s="5">
         <f>C12*C4*1.05</f>
@@ -1869,7 +1937,7 @@
       </c>
       <c r="B15" s="5">
         <f>B13*B6*1000/10000</f>
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" ref="C15:F15" si="1">C13*C6*1000/10000</f>
@@ -1934,28 +2002,28 @@
         <v>52</v>
       </c>
       <c r="B17" s="5">
-        <f>48.66*140</f>
-        <v>6812.4</v>
+        <f>40*140</f>
+        <v>5600</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ref="C17:F17" si="2">48.66*140</f>
-        <v>6812.4</v>
+        <f t="shared" ref="C17:G17" si="2">40*140</f>
+        <v>5600</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>6812.4</v>
+        <v>5600</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>6812.4</v>
+        <v>5600</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>6812.4</v>
+        <v>5600</v>
       </c>
       <c r="G17" s="5">
-        <f>37.48*140</f>
-        <v>5247.2</v>
+        <f t="shared" si="2"/>
+        <v>5600</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>34</v>
@@ -1969,8 +2037,8 @@
         <v>54</v>
       </c>
       <c r="B18" s="5">
-        <f>45*B4</f>
-        <v>1800</v>
+        <f>55*B4</f>
+        <v>2200</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" ref="C18:F18" si="3">45*C4</f>
@@ -2075,27 +2143,27 @@
       </c>
       <c r="B21" s="15">
         <f>B14+B15+B16+B17+B18+B19+B20</f>
-        <v>59524.906000000003</v>
+        <v>60877.25</v>
       </c>
       <c r="C21" s="15">
-        <f t="shared" ref="B21:G21" si="6">C14+C15+C16+C17+C18+C19+C20</f>
-        <v>58759.12</v>
+        <f t="shared" ref="C21:G21" si="6">C14+C15+C16+C17+C18+C19+C20</f>
+        <v>57546.720000000001</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" si="6"/>
-        <v>67399.382000000012</v>
+        <v>66186.982000000004</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="6"/>
-        <v>59606.130339743591</v>
+        <v>58393.73033974359</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="6"/>
-        <v>59297.170081578952</v>
+        <v>58084.77008157895</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="6"/>
-        <v>58672.688163636354</v>
+        <v>59025.488163636357</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13"/>
@@ -2109,27 +2177,27 @@
       </c>
       <c r="B22" s="14">
         <f>B21/B9*10</f>
-        <v>2.8458502423402039</v>
+        <v>2.9105050021499421</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" ref="B22:G22" si="7">C21/C9*10</f>
-        <v>2.7904396956929221</v>
+        <f t="shared" ref="C22:G22" si="7">C21/C9*10</f>
+        <v>2.7328634575352018</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="7"/>
-        <v>2.8625680780600837</v>
+        <v>2.8110753575802421</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="7"/>
-        <v>2.8690507542268469</v>
+        <v>2.8106937175496087</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="7"/>
-        <v>2.9573175690340463</v>
+        <v>2.896851752271389</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="7"/>
-        <v>2.9528817748708693</v>
+        <v>2.9706375096561741</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>40</v>

--- a/demo/导表/机型比选--郁南.xlsx
+++ b/demo/导表/机型比选--郁南.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\demo\导表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613057D-5BFE-4DEA-B1B9-6A199E040140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19185" yWindow="3090" windowWidth="28800" windowHeight="13830" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19185" yWindow="3090" windowWidth="28800" windowHeight="13830" tabRatio="680"/>
   </bookViews>
   <sheets>
     <sheet name="机型比选" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -924,7 +923,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -1191,74 +1190,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1278,7 +1209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1527,12 +1458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2252,7 +2183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I21"/>
   <sheetViews>

--- a/demo/导表/机型比选--郁南.xlsx
+++ b/demo/导表/机型比选--郁南.xlsx
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1695,10 +1695,10 @@
         <v>209163.87346880001</v>
       </c>
       <c r="C9" s="19">
-        <v>210572.97919999997</v>
+        <v>210572.9792</v>
       </c>
       <c r="D9" s="19">
-        <v>235450.7566704771</v>
+        <v>235450.75667047701</v>
       </c>
       <c r="E9" s="19">
         <v>207755.57996640002</v>
@@ -2112,11 +2112,11 @@
       </c>
       <c r="C22" s="14">
         <f t="shared" ref="C22:G22" si="7">C21/C9*10</f>
-        <v>2.7328634575352018</v>
+        <v>2.7328634575352013</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="7"/>
-        <v>2.8110753575802421</v>
+        <v>2.8110753575802434</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="7"/>

--- a/demo/导表/机型比选--郁南.xlsx
+++ b/demo/导表/机型比选--郁南.xlsx
@@ -1462,7 +1462,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
